--- a/TestData/setAutoprovisionAndNIC.xlsx
+++ b/TestData/setAutoprovisionAndNIC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4C84B3-D88F-4E79-9D4B-7F3074B545A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2518FA0B-E256-4B2E-A7ED-319A03A190B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2748" yWindow="2256" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,10 +99,10 @@
     <t>Wave Name</t>
   </si>
   <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>Vcenter</t>
+    <t>VCenter</t>
+  </si>
+  <si>
+    <t>First Flow</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,10 +523,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
